--- a/number_of_contacts_by_PDB.xlsx
+++ b/number_of_contacts_by_PDB.xlsx
@@ -5,22 +5,35 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Downloads/drive-download-20240912T125120Z-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Documents/GitHub/Pro-RNA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94690A37-554D-9E4D-B59D-D2010A183018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC0C4D-3D0C-AE48-9A38-A8C7875F6DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="totais" sheetId="12" r:id="rId1"/>
+    <sheet name="total" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="22">
   <si>
     <t>Total</t>
   </si>
@@ -83,13 +96,16 @@
   </si>
   <si>
     <t>Pro-RNA (atom)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,16 +113,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,18 +150,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -441,794 +505,988 @@
     <col min="2" max="2" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
+      <c r="I2" s="5"/>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <f>SUM(B3,B10,B17,B24,B31,B38,B45,B52,B59,B66,B73,B80,B87,B94)</f>
+        <v>31702</v>
+      </c>
+      <c r="K3" s="4">
+        <f>SUM(C3,C10,C17,C24,C31,C38,C45,C52,C59,C66,C73,C80,C87,C94)</f>
+        <v>19943</v>
+      </c>
+      <c r="L3" s="4">
+        <f>SUM(D3,D10,D17,D24,D31,D38,D45,D52,D59,D66,D73,D80,D87,D94)</f>
+        <v>22441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <f>SUM(B4,B11,B18,B25,B32,B39,B46,B53,B60,B67,B74,B81,B88,B95)</f>
+        <v>915</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="I5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" ref="J5:J6" si="0">SUM(B5,B12,B19,B26,B33,B40,B47,B54,B61,B68,B75,B82,B89,B96)</f>
+        <v>30616</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
         <v>32</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>15</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
         <v>336</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>212</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
         <v>25</v>
       </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>305</v>
       </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="A20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
         <v>6</v>
       </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="4">
         <v>122</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>84</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
         <v>5</v>
       </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>115</v>
       </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4">
         <v>2</v>
       </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="4">
         <v>8</v>
       </c>
-      <c r="C31" s="1">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1">
+      <c r="C31" s="4">
+        <v>7</v>
+      </c>
+      <c r="D31" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
+      <c r="A32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="4">
         <v>8</v>
       </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <v>0</v>
-      </c>
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4">
+        <v>0</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="1" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="4">
         <v>1909</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="4">
         <v>1251</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>1457</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="1">
+      <c r="A39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="4">
         <v>53</v>
       </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="4">
         <v>1842</v>
       </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4">
         <v>14</v>
       </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="1" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="4">
         <v>316</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="4">
         <v>208</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B46" s="1">
+      <c r="A46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
         <v>23</v>
       </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="4">
         <v>288</v>
       </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="1">
+      <c r="A48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="4">
         <v>5</v>
       </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="1">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4">
         <v>60</v>
       </c>
-      <c r="C52" s="1">
+      <c r="C52" s="4">
         <v>32</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="1">
-        <v>3</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="4">
+        <v>3</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="4">
         <v>57</v>
       </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0</v>
-      </c>
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="4">
         <v>41</v>
       </c>
-      <c r="C59" s="1">
+      <c r="C59" s="4">
         <v>28</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D59" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="1">
-        <v>3</v>
-      </c>
+      <c r="A60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="4">
+        <v>3</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="4">
         <v>33</v>
       </c>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="1">
+      <c r="A62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="4">
         <v>4</v>
       </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="2"/>
+      <c r="B64" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="1" t="s">
+      <c r="A65" s="2"/>
+      <c r="B65" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="1">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="4">
         <v>5104</v>
       </c>
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>3186</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D66" s="4">
         <v>3510</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="1">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="4">
         <v>229</v>
       </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="A68" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="4">
         <v>4809</v>
       </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="1">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="4">
         <v>66</v>
       </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="1">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="4">
         <v>7756</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="4">
         <v>4966</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="4">
         <v>5570</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="1">
+      <c r="A74" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="4">
         <v>166</v>
       </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="4">
         <v>7548</v>
       </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="1">
+      <c r="A76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="4">
         <v>42</v>
       </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B79" s="1" t="s">
+      <c r="A79" s="2"/>
+      <c r="B79" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" s="1">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="4">
         <v>5415</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="4">
         <v>3203</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="4">
         <v>3695</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="1">
+      <c r="A81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="4">
         <v>122</v>
       </c>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="4">
         <v>5293</v>
       </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="1">
-        <v>0</v>
-      </c>
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="4">
+        <v>0</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="2"/>
+      <c r="B86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="1">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="4">
         <v>5885</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="4">
         <v>3641</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="4">
         <v>4381</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="1">
+      <c r="A88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="4">
         <v>163</v>
       </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="4">
         <v>5722</v>
       </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="1">
-        <v>0</v>
-      </c>
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="4">
+        <v>0</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B92" s="2" t="s">
+      <c r="A92" s="2"/>
+      <c r="B92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="2"/>
+      <c r="B93" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B94" s="1">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="4">
         <v>4707</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="4">
         <v>3102</v>
       </c>
-      <c r="D94" s="1">
+      <c r="D94" s="4">
         <v>3224</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>3</v>
-      </c>
-      <c r="B95" s="1">
+      <c r="A95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" s="4">
         <v>123</v>
       </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="4">
         <v>4555</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="1">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="4">
         <v>29</v>
       </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B85:D85"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B8:D8"/>
@@ -1236,13 +1494,6 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B85:D85"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
